--- a/src/public/files/sample-create-lessons.xlsx
+++ b/src/public/files/sample-create-lessons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clone\Education_DACN\src\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AB1367-77B3-4877-9DED-20A95862ABF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939F9AA0-655F-46C9-A6EE-AEBB59C91CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="588" windowWidth="20628" windowHeight="11328" xr2:uid="{ACA4A631-7668-4624-8DB6-0BF0E4D74A08}"/>
+    <workbookView xWindow="-24480" yWindow="2565" windowWidth="17280" windowHeight="9465" xr2:uid="{ACA4A631-7668-4624-8DB6-0BF0E4D74A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -40,13 +33,13 @@
     <t>Tên bài học</t>
   </si>
   <si>
-    <t>Sự đồng biến, nghịch biến của hàm số</t>
+    <t>Chúa Giêsu Rao Giảng Tin Mừng Nước Trời</t>
   </si>
   <si>
-    <t>Cực trị của hàm số</t>
+    <t>Chúa Giêsu Rất Quyền Phép</t>
   </si>
   <si>
-    <t>Phương pháp giải bài toán cực trị có tham số đối với các hàm số cơ bản</t>
+    <t>Chúa Giêsu Chọn Các Tông Đồ</t>
   </si>
 </sst>
 </file>
@@ -108,7 +101,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +419,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
